--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3872.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3872.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.75691424114383</v>
+        <v>4.079492092132568</v>
       </c>
       <c r="B1">
-        <v>2.900539155654876</v>
+        <v>3.12166428565979</v>
       </c>
       <c r="C1">
-        <v>3.117963133796953</v>
+        <v>2.850465774536133</v>
       </c>
       <c r="D1">
-        <v>3.567233919974923</v>
+        <v>3.624174833297729</v>
       </c>
       <c r="E1">
-        <v>1.625240459761578</v>
+        <v>5.07529878616333</v>
       </c>
     </row>
   </sheetData>
